--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -49,26 +49,34 @@
     <t>password</t>
   </si>
   <si>
-    <t>nguyennhac2904@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyennhac2904</t>
-  </si>
-  <si>
     <t>accountname</t>
   </si>
   <si>
     <t>John Terry</t>
+  </si>
+  <si>
+    <t>nguyennhac94@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyennhac94@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,13 +99,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,15 +421,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,17 +445,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -452,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -463,12 +483,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
